--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-0.01090182359957145</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.804330271998805</v>
+        <v>-1.796338976919961</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04159278241097025</v>
+        <v>0.0426316350310287</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07659873938837709</v>
+        <v>-0.07879764410083416</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.006265159299787875</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.84221455121983</v>
+        <v>-1.83854787367676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01783138975581507</v>
+        <v>0.02023176891579861</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06278514757984226</v>
+        <v>-0.06257265499846666</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.006244867012367651</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.942739282401699</v>
+        <v>-1.939370881482115</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01585261944001965</v>
+        <v>-0.01765329731478764</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06357215714049261</v>
+        <v>-0.06648094447665627</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01914339858820207</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.991237959567216</v>
+        <v>-1.983822755486768</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03641088318332793</v>
+        <v>-0.03738205298117046</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06032652971237058</v>
+        <v>-0.06233183007290766</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05419489697633222</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.954619191719716</v>
+        <v>-1.942338694535328</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02283969031947341</v>
+        <v>-0.0214655716265779</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07495703744486047</v>
+        <v>-0.07878819998610635</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1171409373194633</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.829854566069817</v>
+        <v>-1.815265769844041</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01816822984777341</v>
+        <v>0.01963993772618956</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06771497546775601</v>
+        <v>-0.06871290359066065</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.207015946104369</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.563255864409073</v>
+        <v>-1.5454269498221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647670722198955</v>
+        <v>0.05648142927935346</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06404593689600412</v>
+        <v>-0.06441897942775238</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3170487784834968</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.163773746470762</v>
+        <v>-1.141159813755035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05239999769782077</v>
+        <v>0.04984221662570715</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0496058854771916</v>
+        <v>-0.04942172523999942</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4342534664934709</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6591321980479126</v>
+        <v>-0.6355486695534643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04744655952308751</v>
+        <v>0.04391131257664616</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01933592375545807</v>
+        <v>-0.02063134149228854</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5439118002184635</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1511836354512102</v>
+        <v>-0.1282124003949479</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04666719177772322</v>
+        <v>-0.05107601933648644</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01939753878150925</v>
+        <v>0.01795888530464042</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6291308688397126</v>
       </c>
       <c r="E12" t="n">
-        <v>0.432390249847505</v>
+        <v>0.4570267971341034</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2301506007477444</v>
+        <v>-0.231054087723371</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08087242958302891</v>
+        <v>0.07862315625869024</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.6750805899080737</v>
       </c>
       <c r="E13" t="n">
-        <v>1.009771943923023</v>
+        <v>1.03808539987698</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5171446551727414</v>
+        <v>-0.5134126558361375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1724882125383354</v>
+        <v>0.1696754403685711</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.6718599617942143</v>
       </c>
       <c r="E14" t="n">
-        <v>1.595909906370337</v>
+        <v>1.627435935350869</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8302957593555133</v>
+        <v>-0.823971350526127</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2804375919153792</v>
+        <v>0.2739762434224399</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.6174839107083689</v>
       </c>
       <c r="E15" t="n">
-        <v>2.273219778380751</v>
+        <v>2.311079660305396</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.168645335651188</v>
+        <v>-1.161426096951342</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4017755779382066</v>
+        <v>0.3961626257516484</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.5172217172158429</v>
       </c>
       <c r="E16" t="n">
-        <v>2.811605148726045</v>
+        <v>2.854168199785137</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.518111421991049</v>
+        <v>-1.510615155925854</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5265732579896529</v>
+        <v>0.5235873437165456</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.3787939601475632</v>
       </c>
       <c r="E17" t="n">
-        <v>3.309838865306079</v>
+        <v>3.352530985933118</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.859391034881024</v>
+        <v>-1.851877454605495</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6503793059946799</v>
+        <v>0.6440013805151695</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.2111831969955095</v>
       </c>
       <c r="E18" t="n">
-        <v>3.726140164565049</v>
+        <v>3.764533638971816</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.174696971240857</v>
+        <v>-2.162392863769649</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8029521274605982</v>
+        <v>0.7985936685137165</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.02379296189801465</v>
       </c>
       <c r="E19" t="n">
-        <v>4.076693111108168</v>
+        <v>4.112070764878522</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.530707829087086</v>
+        <v>-2.516141856138569</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9470032094037945</v>
+        <v>0.9422355054853747</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1750168568518863</v>
       </c>
       <c r="E20" t="n">
-        <v>4.386560811403907</v>
+        <v>4.423828862138943</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.85661714525756</v>
+        <v>-2.838323108020243</v>
       </c>
       <c r="G20" t="n">
-        <v>1.071744224766874</v>
+        <v>1.063658488540752</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3742296096317329</v>
       </c>
       <c r="E21" t="n">
-        <v>4.610373738299894</v>
+        <v>4.640997854323921</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.131807630291923</v>
+        <v>-3.111260384682464</v>
       </c>
       <c r="G21" t="n">
-        <v>1.183084041331199</v>
+        <v>1.172446820109449</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5598614682910548</v>
       </c>
       <c r="E22" t="n">
-        <v>4.778433333900289</v>
+        <v>4.808797736769301</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.354369211986477</v>
+        <v>-3.328718996385761</v>
       </c>
       <c r="G22" t="n">
-        <v>1.271321979252195</v>
+        <v>1.257697269738216</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7195058994471326</v>
       </c>
       <c r="E23" t="n">
-        <v>4.892482037372374</v>
+        <v>4.921358992171756</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.494269605506803</v>
+        <v>-3.468591057561904</v>
       </c>
       <c r="G23" t="n">
-        <v>1.349895439768404</v>
+        <v>1.334825780701071</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8440994080251594</v>
       </c>
       <c r="E24" t="n">
-        <v>4.962102477126624</v>
+        <v>4.991114797570439</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.61110510983315</v>
+        <v>-3.584248408575957</v>
       </c>
       <c r="G24" t="n">
-        <v>1.412136877881997</v>
+        <v>1.396228266623011</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9305146118087217</v>
       </c>
       <c r="E25" t="n">
-        <v>4.958965457017873</v>
+        <v>4.984768352473354</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.712484533397884</v>
+        <v>-3.685851342855916</v>
       </c>
       <c r="G25" t="n">
-        <v>1.451476337780665</v>
+        <v>1.435426064800762</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9827547964377088</v>
       </c>
       <c r="E26" t="n">
-        <v>4.950517696393852</v>
+        <v>4.973141073224306</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.729477643831447</v>
+        <v>-3.704196535714676</v>
       </c>
       <c r="G26" t="n">
-        <v>1.477521632180827</v>
+        <v>1.460227884095097</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.008245061652563</v>
       </c>
       <c r="E27" t="n">
-        <v>4.912026632801564</v>
+        <v>4.930877085798262</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.679650494527552</v>
+        <v>-3.658841961743957</v>
       </c>
       <c r="G27" t="n">
-        <v>1.47263587682831</v>
+        <v>1.456066177538378</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.013435900663349</v>
       </c>
       <c r="E28" t="n">
-        <v>4.761748731214502</v>
+        <v>4.780120682398324</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.608897548015526</v>
+        <v>-3.589913303393518</v>
       </c>
       <c r="G28" t="n">
-        <v>1.426361288681191</v>
+        <v>1.408576446629615</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.003276972919314</v>
       </c>
       <c r="E29" t="n">
-        <v>4.635044914007161</v>
+        <v>4.651726368654706</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.518945503271434</v>
+        <v>-3.500775026535139</v>
       </c>
       <c r="G29" t="n">
-        <v>1.38095555908903</v>
+        <v>1.364272530422364</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9814418404846544</v>
       </c>
       <c r="E30" t="n">
-        <v>4.487405068467399</v>
+        <v>4.499841393544796</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.395000154574172</v>
+        <v>-3.372516078435952</v>
       </c>
       <c r="G30" t="n">
-        <v>1.327947317140987</v>
+        <v>1.311727050095983</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9516349549523816</v>
       </c>
       <c r="E31" t="n">
-        <v>4.334196343276475</v>
+        <v>4.344458947947356</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.274461770264965</v>
+        <v>-3.250904213086018</v>
       </c>
       <c r="G31" t="n">
-        <v>1.259696274022268</v>
+        <v>1.247093102918013</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9195555365079099</v>
       </c>
       <c r="E32" t="n">
-        <v>4.195136475966923</v>
+        <v>4.207308365831942</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.13674060621808</v>
+        <v>-3.111793190155024</v>
       </c>
       <c r="G32" t="n">
-        <v>1.190996635453978</v>
+        <v>1.177260170582387</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8901736992969043</v>
       </c>
       <c r="E33" t="n">
-        <v>3.991461549708857</v>
+        <v>4.002558384514026</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.015671777464995</v>
+        <v>-2.987643218971993</v>
       </c>
       <c r="G33" t="n">
-        <v>1.120365675423852</v>
+        <v>1.10769324747826</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8676699311923244</v>
       </c>
       <c r="E34" t="n">
-        <v>3.734967263797303</v>
+        <v>3.747041564476801</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.936422275736187</v>
+        <v>-2.909616730100436</v>
       </c>
       <c r="G34" t="n">
-        <v>1.061111725602488</v>
+        <v>1.04886743085789</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8550565040031793</v>
       </c>
       <c r="E35" t="n">
-        <v>3.494115579913236</v>
+        <v>3.506043496814453</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.846565459148934</v>
+        <v>-2.816741731848089</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9668972370779139</v>
+        <v>0.9523045058043352</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8519645088208616</v>
       </c>
       <c r="E36" t="n">
-        <v>3.236736695255511</v>
+        <v>3.245637773386467</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.778521399544666</v>
+        <v>-2.753112008869509</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8945568922820556</v>
+        <v>0.8805260858347812</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8578098344669198</v>
       </c>
       <c r="E37" t="n">
-        <v>2.987789831030595</v>
+        <v>2.99905036382438</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.679920906738587</v>
+        <v>-2.655068718832371</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8396928817899988</v>
+        <v>0.8285881768892225</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8698442934453171</v>
       </c>
       <c r="E38" t="n">
-        <v>2.703126898924244</v>
+        <v>2.710318592289467</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.589524201592728</v>
+        <v>-2.568283600560336</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7736076889821895</v>
+        <v>0.7613382099316506</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8831386801249733</v>
       </c>
       <c r="E39" t="n">
-        <v>2.448582822703982</v>
+        <v>2.454444469911706</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.477439086974467</v>
+        <v>-2.452790734544459</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7040690982222463</v>
+        <v>0.69183896964974</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8956388772395748</v>
       </c>
       <c r="E40" t="n">
-        <v>2.213673061002825</v>
+        <v>2.218739828554292</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.381798537125995</v>
+        <v>-2.355651718492508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6500078374820529</v>
+        <v>0.6404614115113643</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9049271220578119</v>
       </c>
       <c r="E41" t="n">
-        <v>2.012437864382774</v>
+        <v>2.018074426856152</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.285795175870062</v>
+        <v>-2.261370334155279</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5851220472446746</v>
+        <v>0.5759329236145212</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.908321929603143</v>
       </c>
       <c r="E42" t="n">
-        <v>1.76118191410691</v>
+        <v>1.762444277442193</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.187706239278407</v>
+        <v>-2.164011742435907</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5148735738610249</v>
+        <v>0.5065391426137378</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9054952621553255</v>
       </c>
       <c r="E43" t="n">
-        <v>1.544173471872305</v>
+        <v>1.545533424393109</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.106179918890638</v>
+        <v>-2.082166683176074</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4613081291440412</v>
+        <v>0.453397109040384</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8964898907627152</v>
       </c>
       <c r="E44" t="n">
-        <v>1.315193040201087</v>
+        <v>1.313028763909299</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.017568938437894</v>
+        <v>-1.993592692172681</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4127795456152197</v>
+        <v>0.4082432225076312</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.881304775833798</v>
       </c>
       <c r="E45" t="n">
-        <v>1.104409843591227</v>
+        <v>1.102857860737625</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.938406007760758</v>
+        <v>-1.915668514544009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3534264325892134</v>
+        <v>0.3497259136350355</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8612705835118746</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9051705032169861</v>
+        <v>0.9020476492803255</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.871385060585335</v>
+        <v>-1.848933251839102</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2843694916803883</v>
+        <v>0.280158990530909</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8362638487149537</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7448377674830554</v>
+        <v>0.7404887526509016</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.823006008873038</v>
+        <v>-1.802876665340284</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2457934310555511</v>
+        <v>0.2431207465875825</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8063213677626351</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5841068049114357</v>
+        <v>0.5805731319841156</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.756736655828036</v>
+        <v>-1.735359115132091</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2008866655248425</v>
+        <v>0.1999501241476686</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7722058534346146</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4567513437878757</v>
+        <v>0.4519616036017577</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.708435518062242</v>
+        <v>-1.687508146834989</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1476375986512402</v>
+        <v>0.1440630012267663</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7339878976927977</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3557481107931319</v>
+        <v>0.3553372918024724</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.645964273156939</v>
+        <v>-1.622794711691393</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1139079429008878</v>
+        <v>0.1126408575082407</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6918425496977021</v>
       </c>
       <c r="E51" t="n">
-        <v>0.22511081980166</v>
+        <v>0.2235478188142085</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.594357695236414</v>
+        <v>-1.573621567332399</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07692321560768549</v>
+        <v>0.07527836562592627</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6469998373892762</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1182758459624972</v>
+        <v>0.1168970052122378</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.550607046750301</v>
+        <v>-1.527585443082157</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04635576427202613</v>
+        <v>0.04573245269999106</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5996899781167887</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02707088199785011</v>
+        <v>0.02299259845456002</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.531832146671427</v>
+        <v>-1.512559856550221</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007005286239508936</v>
+        <v>0.006551968732574339</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5518811108132284</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06472276511816341</v>
+        <v>-0.0699595267347308</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.514103182298656</v>
+        <v>-1.494357112421939</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01378908037199445</v>
+        <v>-0.01473191782565356</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5051895591461931</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1367845085295515</v>
+        <v>-0.1418024814882581</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.501120672586168</v>
+        <v>-1.480535650517798</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04353961578369875</v>
+        <v>-0.0445595801743016</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4592935521581523</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.205802098960344</v>
+        <v>-0.2137414514081847</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.506765105155152</v>
+        <v>-1.486656223870976</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07446909151725727</v>
+        <v>-0.07441714888625434</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4149554631189724</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2610832245195455</v>
+        <v>-0.2675477210507274</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.503165323424738</v>
+        <v>-1.482255266407819</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1081798590381541</v>
+        <v>-0.1120125955985213</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3719139458035696</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.345600181237786</v>
+        <v>-0.3541313648752357</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.502375165825845</v>
+        <v>-1.481551679860597</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1282643430259509</v>
+        <v>-0.130976377971952</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3292968385640211</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4198671254381163</v>
+        <v>-0.4294324396382606</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.522480112062218</v>
+        <v>-1.503968073176601</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1518037989850027</v>
+        <v>-0.1541050149403443</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2876193316435657</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4878395671723652</v>
+        <v>-0.4936319575387517</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.537216866085396</v>
+        <v>-1.519457995349321</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1845056202491457</v>
+        <v>-0.1888294507753587</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2464974770999669</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5599642713486053</v>
+        <v>-0.5669670824192721</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.566270111026364</v>
+        <v>-1.549695689679068</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2065796644062666</v>
+        <v>-0.2102660171883528</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2046426112533453</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.614943185236517</v>
+        <v>-0.6226086583572514</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.594658332888583</v>
+        <v>-1.57548599298158</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2191183007265479</v>
+        <v>-0.2217012661046023</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1631333850816503</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6674146866641968</v>
+        <v>-0.6759568884354956</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.639668196671737</v>
+        <v>-1.621540218451717</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.252668518297072</v>
+        <v>-0.2560589554843537</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1215735332676231</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7234859698222912</v>
+        <v>-0.7333109971774501</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.681406461711267</v>
+        <v>-1.664571540199395</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2737934289240486</v>
+        <v>-0.27558623670321</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08035141449459293</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7996370149108184</v>
+        <v>-0.8121331527148246</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.726025968752338</v>
+        <v>-1.709104476188795</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3008256333132666</v>
+        <v>-0.3053383461340357</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.03977147603780167</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8749168404157058</v>
+        <v>-0.8926001582339583</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.765060068941474</v>
+        <v>-1.748124410205839</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3207479933315694</v>
+        <v>-0.323546599329242</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.0003549096876443529</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.927639397893233</v>
+        <v>-0.9449465251414947</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.795012078800705</v>
+        <v>-1.776452819341448</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3444464252218725</v>
+        <v>-0.347882508963672</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.03916183956107756</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9695563141030309</v>
+        <v>-0.9932114604674983</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.828277398910273</v>
+        <v>-1.808695814031732</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3693222234149086</v>
+        <v>-0.3741843684806064</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07658500063556579</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9925991670293124</v>
+        <v>-1.018790058198195</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.865756368207564</v>
+        <v>-1.841606979839008</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3878389843578899</v>
+        <v>-0.3921092982339787</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1129446197373512</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9901326790662341</v>
+        <v>-1.016236999183445</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.897727057589863</v>
+        <v>-1.875254786595053</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4115578784967699</v>
+        <v>-0.418420601865641</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1483045273711857</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9945454416728007</v>
+        <v>-1.0163519025793</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.923372551133215</v>
+        <v>-1.900166000218318</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4210728240850326</v>
+        <v>-0.4281763723794626</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1830272146212079</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9973889072154304</v>
+        <v>-1.022999772338114</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.966862699454753</v>
+        <v>-1.944545469343391</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4260514465657067</v>
+        <v>-0.4328244508446635</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2173662151003706</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9607654173105666</v>
+        <v>-0.9879770598796129</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.987518552383582</v>
+        <v>-1.961548023891681</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4384405510694644</v>
+        <v>-0.4450325431494717</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2511460584135346</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9074014470411094</v>
+        <v>-0.9326644539379855</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.026040309348735</v>
+        <v>-2.001944437630303</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4390654366606208</v>
+        <v>-0.4475037531699138</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2846556775057572</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8486496093194399</v>
+        <v>-0.8746949037196023</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.051201792012287</v>
+        <v>-2.025820733681313</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.44575659194527</v>
+        <v>-0.4537699232918118</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3182773781792685</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7586542790495124</v>
+        <v>-0.7834608204012112</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.083674593494281</v>
+        <v>-2.06203655263376</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4374174386406189</v>
+        <v>-0.444306920334552</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3513294521381879</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6645373797104591</v>
+        <v>-0.6922149319394104</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.078430748791667</v>
+        <v>-2.059430763978447</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4228514656921024</v>
+        <v>-0.4282723875458619</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3836227316756439</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5528135024805363</v>
+        <v>-0.5796583985943196</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.083702138828903</v>
+        <v>-2.067684920250548</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4148381343455606</v>
+        <v>-0.420232297874258</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4143581627234268</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3953045570502191</v>
+        <v>-0.4217732625940114</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.067244981906144</v>
+        <v>-2.052955249313416</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3895940156781402</v>
+        <v>-0.3944813450497788</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4426295797184818</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2557535957748214</v>
+        <v>-0.2839820546962279</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.034161461005085</v>
+        <v>-2.019915800947754</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3702335804861417</v>
+        <v>-0.3756702425311143</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.467941830014848</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.05480487063484777</v>
+        <v>-0.0814105158421933</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.999843909112927</v>
+        <v>-1.983574847475163</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3440324581929705</v>
+        <v>-0.350641764483312</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.489085940625243</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1175549452049414</v>
+        <v>0.09283654892403544</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.95646315512032</v>
+        <v>-1.939703786526271</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3246358205611821</v>
+        <v>-0.3345505670062551</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5048836452507127</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3234177580416158</v>
+        <v>0.2964925869526462</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.898955579514038</v>
+        <v>-1.883978000565302</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2850775720046532</v>
+        <v>-0.2928673926359703</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.515351448923645</v>
       </c>
       <c r="E84" t="n">
-        <v>0.535592387554706</v>
+        <v>0.5141023044915877</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.818297330671667</v>
+        <v>-1.80574059313149</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2551318582219076</v>
+        <v>-0.2650654928964363</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5195455768463678</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7191655156146413</v>
+        <v>0.7002521018530922</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.70258725001705</v>
+        <v>-1.690476746897762</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2302088394552325</v>
+        <v>-0.2422815661156088</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5188403291801141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9329724029565202</v>
+        <v>0.9120143383564014</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.612713906229023</v>
+        <v>-1.603713664893426</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1963611322707825</v>
+        <v>-0.2083047893632121</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5140778987961071</v>
       </c>
       <c r="E87" t="n">
-        <v>1.144810192377652</v>
+        <v>1.126989147886285</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.492940495212769</v>
+        <v>-1.488136588854559</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1576040594469957</v>
+        <v>-0.1670371560409507</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5057522665185911</v>
       </c>
       <c r="E88" t="n">
-        <v>1.315148967665691</v>
+        <v>1.301020572032896</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.337092926964984</v>
+        <v>-1.329836698815788</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1311636862473868</v>
+        <v>-0.1421345995228525</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4946142334094291</v>
       </c>
       <c r="E89" t="n">
-        <v>1.448729674413995</v>
+        <v>1.436513712013581</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.155477878691947</v>
+        <v>-1.14772504750998</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1034971521522846</v>
+        <v>-0.1143846424143214</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4815735613588358</v>
       </c>
       <c r="E90" t="n">
-        <v>1.564193421076129</v>
+        <v>1.552997423066317</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.97020874502881</v>
+        <v>-0.9633594008224702</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07828608788641143</v>
+        <v>-0.08755706051087249</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4672491077805153</v>
       </c>
       <c r="E91" t="n">
-        <v>1.639716432535257</v>
+        <v>1.625564426615642</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7755513743166753</v>
+        <v>-0.770388591598809</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08170485741787653</v>
+        <v>-0.0914732200846686</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4530269972758394</v>
       </c>
       <c r="E92" t="n">
-        <v>1.7023088769129</v>
+        <v>1.693466037489433</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5723518018332417</v>
+        <v>-0.5711303629951124</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07533007997660875</v>
+        <v>-0.084413744325635</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4399831803291111</v>
       </c>
       <c r="E93" t="n">
-        <v>1.711743547525976</v>
+        <v>1.705968471369924</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002595692440736</v>
+        <v>-0.4003052157985914</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07955159925993718</v>
+        <v>-0.08684875190628717</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.429163779468733</v>
       </c>
       <c r="E94" t="n">
-        <v>1.698625672169056</v>
+        <v>1.693722602606205</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2154256518679765</v>
+        <v>-0.2161371085108044</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09821474398119943</v>
+        <v>-0.1026802362283295</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4212947482033822</v>
       </c>
       <c r="E95" t="n">
-        <v>1.66636772429712</v>
+        <v>1.662369715729016</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07413225142529892</v>
+        <v>-0.07306349244193575</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1038812128178819</v>
+        <v>-0.1091604729507244</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4159872812175302</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606194547308916</v>
+        <v>1.606551849649451</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03239421466608903</v>
+        <v>0.02901951767002036</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1160279183769593</v>
+        <v>-0.1187006028449279</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4104723681359199</v>
       </c>
       <c r="E97" t="n">
-        <v>1.513796476850323</v>
+        <v>1.518568902826107</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0952447981796255</v>
+        <v>0.09145613415465474</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1375746661284444</v>
+        <v>-0.1388118451577868</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4013031138195829</v>
       </c>
       <c r="E98" t="n">
-        <v>1.380579368519039</v>
+        <v>1.381797659318926</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1438473606071481</v>
+        <v>0.1410298663800199</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1461184419188646</v>
+        <v>-0.147544503242763</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3866906252312523</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252879197207915</v>
+        <v>1.254193503174201</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1547962376149157</v>
+        <v>0.1497184519295997</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1609000554869993</v>
+        <v>-0.1617091013153479</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3650259326977809</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124357387915471</v>
+        <v>1.124769780925251</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1721671126375901</v>
+        <v>0.1651076368785565</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1680618424889175</v>
+        <v>-0.1688535741069317</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3392309627518276</v>
       </c>
       <c r="E101" t="n">
-        <v>1.013499221202263</v>
+        <v>1.016017651796344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1840525310225316</v>
+        <v>0.1778697839140625</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1918688816985904</v>
+        <v>-0.1928557916876459</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3060064937059999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8971776341190212</v>
+        <v>0.8986981365901977</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1795587064312181</v>
+        <v>0.170067371129775</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1936286350762045</v>
+        <v>-0.1921474830830606</v>
       </c>
     </row>
   </sheetData>
